--- a/Audio_Types.xlsx
+++ b/Audio_Types.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://c569257608da4dcaafbc-my.sharepoint.com/personal/mengliyang_brandeis_edu/Documents/CS 136 Automated speech recognition_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6EC6D05-B396-4804-9A5B-A3D6B6B3F687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCBD3A3B-582B-4ACA-9DE9-98F31E3C7AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{E0FD9308-6E77-E243-AF3F-0AD8224D9605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>Audio Files</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>B27</t>
+  </si>
+  <si>
+    <t>WIKITONGUES_Ljoni</t>
+  </si>
+  <si>
+    <t>WIKITONGUES</t>
   </si>
 </sst>
 </file>
@@ -620,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A647E44-5EC8-7E4A-94E1-40BCA5CBED9C}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="24.95"/>
@@ -1120,6 +1126,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="29" spans="1:5" ht="52.5">
+      <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
